--- a/src/ExcelsiorClosedXml.Tests/ComplexTypeWithCustomRender.Test.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ComplexTypeWithCustomRender.Test.verified.xlsx
@@ -84,7 +84,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -390,8 +390,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="35.996339" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="37.996339" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/src/ExcelsiorClosedXml.Tests/ComplexTypeWithCustomRender.Test.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ComplexTypeWithCustomRender.Test.verified.xlsx
@@ -394,7 +394,7 @@
     <x:col min="2" max="2" width="37.996339" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:2" ht="14.25" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -402,7 +402,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:2">
+    <x:row r="2" spans="1:2" ht="14.25" customHeight="1">
       <x:c r="A2" s="1" t="s">
         <x:v>2</x:v>
       </x:c>

--- a/src/ExcelsiorClosedXml.Tests/ComplexTypeWithCustomRender.Test.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ComplexTypeWithCustomRender.Test.verified.xlsx
@@ -390,8 +390,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="37.996339" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="36.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2" ht="14.25" customHeight="1">
